--- a/job_data/job_data_preprocessed_for_accuracy_test.xlsx
+++ b/job_data/job_data_preprocessed_for_accuracy_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/normanschmickler/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0762AC70-1975-184E-B56F-3D14D4F064BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6531EA35-8007-EF41-B9A0-DA4FF2D22A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7260" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7260" yWindow="-21100" windowWidth="38400" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2986,16 +2986,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50946F2A-D8A9-5F42-AC82-11C90A31198D}" name="Tabelle1" displayName="Tabelle1" ref="A1:N106" totalsRowShown="0" headerRowDxfId="2" dataDxfId="4" headerRowBorderDxfId="18" tableBorderDxfId="19">
-  <autoFilter ref="A1:N106" xr:uid="{50946F2A-D8A9-5F42-AC82-11C90A31198D}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="NEIN"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N106" xr:uid="{50946F2A-D8A9-5F42-AC82-11C90A31198D}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{69FF4F11-D09A-F943-A8A4-29AD7D49F7C8}" name="id" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{654F29D1-D70A-364A-BC54-56A60602AED8}" name="title" dataDxfId="14"/>
@@ -3303,8 +3294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="H34" zoomScale="116" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3368,7 +3359,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="112" hidden="1" customHeight="1">
+    <row r="2" spans="1:14" ht="112" customHeight="1">
       <c r="A2" s="1">
         <v>7359176</v>
       </c>
@@ -3394,7 +3385,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="409.6" hidden="1">
+    <row r="3" spans="1:14" ht="409.6">
       <c r="A3" s="1">
         <v>8712510</v>
       </c>
@@ -3423,7 +3414,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="409.6" hidden="1">
+    <row r="4" spans="1:14" ht="409.6">
       <c r="A4" s="1">
         <v>4911548</v>
       </c>
@@ -3452,7 +3443,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="409.6" hidden="1">
+    <row r="5" spans="1:14" ht="409.6">
       <c r="A5" s="1">
         <v>7520167</v>
       </c>
@@ -3481,7 +3472,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="409.6" hidden="1">
+    <row r="6" spans="1:14" ht="409.6">
       <c r="A6" s="1">
         <v>7082231</v>
       </c>
@@ -3507,7 +3498,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="409.6" hidden="1">
+    <row r="7" spans="1:14" ht="409.6">
       <c r="A7" s="1">
         <v>6678324</v>
       </c>
@@ -3539,7 +3530,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="409.6" hidden="1">
+    <row r="8" spans="1:14" ht="409.6">
       <c r="A8" s="1">
         <v>4687237</v>
       </c>
@@ -3568,7 +3559,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="409.6" hidden="1">
+    <row r="9" spans="1:14" ht="409.6">
       <c r="A9" s="1">
         <v>6120060</v>
       </c>
@@ -3597,7 +3588,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="409.6" hidden="1">
+    <row r="10" spans="1:14" ht="409.6">
       <c r="A10" s="1">
         <v>6564749</v>
       </c>
@@ -3623,7 +3614,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="409.6" hidden="1">
+    <row r="11" spans="1:14" ht="409.6">
       <c r="A11" s="1">
         <v>2641600</v>
       </c>
@@ -3649,7 +3640,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="409.6" hidden="1">
+    <row r="12" spans="1:14" ht="409.6">
       <c r="A12" s="1">
         <v>5234988</v>
       </c>
@@ -3678,7 +3669,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="409.6" hidden="1">
+    <row r="13" spans="1:14" ht="409.6">
       <c r="A13" s="1">
         <v>5129475</v>
       </c>
@@ -3707,7 +3698,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="409.6" hidden="1">
+    <row r="14" spans="1:14" ht="409.6">
       <c r="A14" s="1">
         <v>6670523</v>
       </c>
@@ -3733,7 +3724,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="409.6" hidden="1">
+    <row r="15" spans="1:14" ht="409.6">
       <c r="A15" s="1">
         <v>6902182</v>
       </c>
@@ -3762,7 +3753,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="409.6" hidden="1">
+    <row r="16" spans="1:14" ht="409.6">
       <c r="A16" s="1">
         <v>5610928</v>
       </c>
@@ -3791,7 +3782,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="409.6" hidden="1">
+    <row r="17" spans="1:14" ht="409.6">
       <c r="A17" s="1">
         <v>3634750</v>
       </c>
@@ -3820,7 +3811,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="409.6" hidden="1">
+    <row r="18" spans="1:14" ht="409.6">
       <c r="A18" s="1">
         <v>8143369</v>
       </c>
@@ -3849,7 +3840,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="409.6" hidden="1">
+    <row r="19" spans="1:14" ht="409.6">
       <c r="A19" s="1">
         <v>7016904</v>
       </c>
@@ -3878,7 +3869,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="409.6" hidden="1">
+    <row r="20" spans="1:14" ht="409.6">
       <c r="A20" s="1">
         <v>6827169</v>
       </c>
@@ -3907,7 +3898,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="409.6" hidden="1">
+    <row r="21" spans="1:14" ht="409.6">
       <c r="A21" s="1">
         <v>7309377</v>
       </c>
@@ -3933,7 +3924,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="409.6" hidden="1">
+    <row r="22" spans="1:14" ht="409.6">
       <c r="A22" s="1">
         <v>995073</v>
       </c>
@@ -4003,7 +3994,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="409.6" hidden="1">
+    <row r="24" spans="1:14" ht="409.6">
       <c r="A24" s="1">
         <v>747353</v>
       </c>
@@ -4032,7 +4023,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="409.6" hidden="1">
+    <row r="25" spans="1:14" ht="409.6">
       <c r="A25" s="1">
         <v>513053</v>
       </c>
@@ -4061,7 +4052,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="409.6" hidden="1">
+    <row r="26" spans="1:14" ht="409.6">
       <c r="A26" s="1">
         <v>6632995</v>
       </c>
@@ -4087,7 +4078,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="409.6" hidden="1">
+    <row r="27" spans="1:14" ht="409.6">
       <c r="A27" s="1">
         <v>4960540</v>
       </c>
@@ -4116,7 +4107,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="409.6" hidden="1">
+    <row r="28" spans="1:14" ht="409.6">
       <c r="A28" s="1">
         <v>4744121</v>
       </c>
@@ -4145,7 +4136,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="409.6" hidden="1">
+    <row r="29" spans="1:14" ht="409.6">
       <c r="A29" s="1">
         <v>4586815</v>
       </c>
@@ -4174,7 +4165,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="409.6" hidden="1">
+    <row r="30" spans="1:14" ht="409.6">
       <c r="A30" s="1">
         <v>6922414</v>
       </c>
@@ -4203,7 +4194,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="409.6" hidden="1">
+    <row r="31" spans="1:14" ht="409.6">
       <c r="A31" s="1">
         <v>6262613</v>
       </c>
@@ -4268,7 +4259,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="409.6" hidden="1">
+    <row r="33" spans="1:14" ht="409.6">
       <c r="A33" s="1">
         <v>6815336</v>
       </c>
@@ -4297,7 +4288,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" ht="409.6" hidden="1">
+    <row r="34" spans="1:14" ht="409.6">
       <c r="A34" s="1">
         <v>5036098</v>
       </c>
@@ -4335,7 +4326,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" ht="409.6" hidden="1">
+    <row r="35" spans="1:14" ht="409.6">
       <c r="A35" s="1">
         <v>7329014</v>
       </c>
@@ -4364,7 +4355,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" ht="409.6" hidden="1">
+    <row r="36" spans="1:14" ht="409.6">
       <c r="A36" s="1">
         <v>4687247</v>
       </c>
@@ -4393,7 +4384,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" ht="409.6" hidden="1">
+    <row r="37" spans="1:14" ht="409.6">
       <c r="A37" s="1">
         <v>5375645</v>
       </c>
@@ -4425,7 +4416,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" ht="409.6" hidden="1">
+    <row r="38" spans="1:14" ht="409.6">
       <c r="A38" s="1">
         <v>4707304</v>
       </c>
@@ -4454,7 +4445,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" ht="409.6" hidden="1">
+    <row r="39" spans="1:14" ht="409.6">
       <c r="A39" s="1">
         <v>5244403</v>
       </c>
@@ -4516,7 +4507,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="409.6" hidden="1">
+    <row r="41" spans="1:14" ht="409.6">
       <c r="A41" s="1">
         <v>6775431</v>
       </c>
@@ -4545,7 +4536,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" ht="409.6" hidden="1">
+    <row r="42" spans="1:14" ht="409.6">
       <c r="A42" s="1">
         <v>6400964</v>
       </c>
@@ -4574,7 +4565,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" ht="409.6" hidden="1">
+    <row r="43" spans="1:14" ht="409.6">
       <c r="A43" s="1">
         <v>8399404</v>
       </c>
@@ -4603,7 +4594,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" ht="409.6" hidden="1">
+    <row r="44" spans="1:14" ht="409.6">
       <c r="A44" s="1">
         <v>6060373</v>
       </c>
@@ -4662,7 +4653,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="409.6" hidden="1">
+    <row r="46" spans="1:14" ht="409.6">
       <c r="A46" s="1">
         <v>6021877</v>
       </c>
@@ -4714,7 +4705,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" ht="409.6" hidden="1">
+    <row r="48" spans="1:14" ht="409.6">
       <c r="A48" s="1">
         <v>4089556</v>
       </c>
@@ -4743,7 +4734,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" ht="409.6" hidden="1">
+    <row r="49" spans="1:14" ht="409.6">
       <c r="A49" s="1">
         <v>7756579</v>
       </c>
@@ -4772,7 +4763,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" ht="409.6" hidden="1">
+    <row r="50" spans="1:14" ht="409.6">
       <c r="A50" s="1">
         <v>6092775</v>
       </c>
@@ -4801,7 +4792,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" ht="409.6" hidden="1">
+    <row r="51" spans="1:14" ht="409.6">
       <c r="A51" s="1">
         <v>5292288</v>
       </c>
@@ -4830,7 +4821,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" ht="409.6" hidden="1">
+    <row r="52" spans="1:14" ht="409.6">
       <c r="A52" s="1">
         <v>6037258</v>
       </c>
@@ -4856,7 +4847,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" ht="409.6" hidden="1">
+    <row r="53" spans="1:14" ht="409.6">
       <c r="A53" s="1">
         <v>6615132</v>
       </c>
@@ -4885,7 +4876,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" ht="409.6" hidden="1">
+    <row r="54" spans="1:14" ht="409.6">
       <c r="A54" s="1">
         <v>6043880</v>
       </c>
@@ -4914,7 +4905,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" ht="409.6" hidden="1">
+    <row r="55" spans="1:14" ht="409.6">
       <c r="A55" s="1">
         <v>4558853</v>
       </c>
@@ -4979,7 +4970,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="409.6" hidden="1">
+    <row r="57" spans="1:14" ht="409.6">
       <c r="A57" s="1">
         <v>6757788</v>
       </c>
@@ -5005,7 +4996,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14" ht="409.6" hidden="1">
+    <row r="58" spans="1:14" ht="409.6">
       <c r="A58" s="1">
         <v>4978817</v>
       </c>
@@ -5034,7 +5025,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" ht="409.6" hidden="1">
+    <row r="59" spans="1:14" ht="409.6">
       <c r="A59" s="1">
         <v>8497943</v>
       </c>
@@ -5063,7 +5054,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" ht="409.6" hidden="1">
+    <row r="60" spans="1:14" ht="409.6">
       <c r="A60" s="1">
         <v>8662524</v>
       </c>
@@ -5092,7 +5083,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" ht="409.6" hidden="1">
+    <row r="61" spans="1:14" ht="409.6">
       <c r="A61" s="1">
         <v>7233304</v>
       </c>
@@ -5121,7 +5112,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" ht="409.6" hidden="1">
+    <row r="62" spans="1:14" ht="409.6">
       <c r="A62" s="1">
         <v>7201436</v>
       </c>
@@ -5150,7 +5141,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" ht="409.6" hidden="1">
+    <row r="63" spans="1:14" ht="409.6">
       <c r="A63" s="1">
         <v>4891554</v>
       </c>
@@ -5179,7 +5170,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" ht="409.6" hidden="1">
+    <row r="64" spans="1:14" ht="409.6">
       <c r="A64" s="1">
         <v>3035971</v>
       </c>
@@ -5241,7 +5232,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="409.6" hidden="1">
+    <row r="66" spans="1:14" ht="409.6">
       <c r="A66" s="1">
         <v>7604282</v>
       </c>
@@ -5270,7 +5261,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14" ht="409.6" hidden="1">
+    <row r="67" spans="1:14" ht="409.6">
       <c r="A67" s="1">
         <v>5530331</v>
       </c>
@@ -5299,7 +5290,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14" ht="409.6" hidden="1">
+    <row r="68" spans="1:14" ht="409.6">
       <c r="A68" s="1">
         <v>7712650</v>
       </c>
@@ -5325,7 +5316,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:14" ht="409.6" hidden="1">
+    <row r="69" spans="1:14" ht="409.6">
       <c r="A69" s="1">
         <v>6526119</v>
       </c>
@@ -5387,7 +5378,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="409.6" hidden="1">
+    <row r="71" spans="1:14" ht="409.6">
       <c r="A71" s="1">
         <v>8669936</v>
       </c>
@@ -5413,7 +5404,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:14" ht="409.6" hidden="1">
+    <row r="72" spans="1:14" ht="409.6">
       <c r="A72" s="1">
         <v>5239397</v>
       </c>
@@ -5508,7 +5499,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="409.6" hidden="1">
+    <row r="75" spans="1:14" ht="409.6">
       <c r="A75" s="1">
         <v>5210614</v>
       </c>
@@ -5533,7 +5524,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:14" ht="409.6" hidden="1">
+    <row r="76" spans="1:14" ht="409.6">
       <c r="A76" s="1">
         <v>4254479</v>
       </c>
@@ -5564,7 +5555,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="409.6" hidden="1">
+    <row r="77" spans="1:14" ht="409.6">
       <c r="A77" s="1">
         <v>4261233</v>
       </c>
@@ -5592,7 +5583,7 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="1:14" ht="409.6" hidden="1">
+    <row r="78" spans="1:14" ht="409.6">
       <c r="A78" s="1">
         <v>7406831</v>
       </c>
@@ -5620,7 +5611,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="409.6" hidden="1">
+    <row r="79" spans="1:14" ht="409.6">
       <c r="A79" s="1">
         <v>5973703</v>
       </c>
@@ -5687,7 +5678,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="409.6" hidden="1">
+    <row r="81" spans="1:14" ht="409.6">
       <c r="A81" s="1">
         <v>5816741</v>
       </c>
@@ -5752,7 +5743,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="409.6" hidden="1">
+    <row r="83" spans="1:14" ht="409.6">
       <c r="A83" s="1">
         <v>7135375</v>
       </c>
@@ -5780,7 +5771,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="409.6" hidden="1">
+    <row r="84" spans="1:14" ht="409.6">
       <c r="A84" s="1">
         <v>5134637</v>
       </c>
@@ -5817,7 +5808,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="409.6" hidden="1">
+    <row r="85" spans="1:14" ht="409.6">
       <c r="A85" s="1">
         <v>6512302</v>
       </c>
@@ -5848,7 +5839,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="409.6" hidden="1">
+    <row r="86" spans="1:14" ht="409.6">
       <c r="A86" s="1">
         <v>4586928</v>
       </c>
@@ -5876,7 +5867,7 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="1:14" ht="409.6" hidden="1">
+    <row r="87" spans="1:14" ht="409.6">
       <c r="A87" s="1">
         <v>8669937</v>
       </c>
@@ -5904,7 +5895,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="409.6" hidden="1">
+    <row r="88" spans="1:14" ht="409.6">
       <c r="A88" s="1">
         <v>8184935</v>
       </c>
@@ -5932,7 +5923,7 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="1:14" ht="409.6" hidden="1">
+    <row r="89" spans="1:14" ht="409.6">
       <c r="A89" s="1">
         <v>8175806</v>
       </c>
@@ -5966,7 +5957,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="409.6" hidden="1">
+    <row r="90" spans="1:14" ht="409.6">
       <c r="A90" s="1">
         <v>4586401</v>
       </c>
@@ -5997,7 +5988,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="409.6" hidden="1">
+    <row r="91" spans="1:14" ht="409.6">
       <c r="A91" s="1">
         <v>5992398</v>
       </c>
@@ -6028,7 +6019,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="409.6" hidden="1">
+    <row r="92" spans="1:14" ht="409.6">
       <c r="A92" s="1">
         <v>6356354</v>
       </c>
@@ -6059,7 +6050,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="409.6" hidden="1">
+    <row r="93" spans="1:14" ht="409.6">
       <c r="A93" s="1">
         <v>6642287</v>
       </c>
@@ -6096,7 +6087,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="409.6" hidden="1">
+    <row r="94" spans="1:14" ht="409.6">
       <c r="A94" s="1">
         <v>4939214</v>
       </c>
@@ -6131,7 +6122,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="1:14" ht="409.6" hidden="1">
+    <row r="95" spans="1:14" ht="409.6">
       <c r="A95" s="1">
         <v>4610340</v>
       </c>
@@ -6160,7 +6151,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="1:14" ht="409.6" hidden="1">
+    <row r="96" spans="1:14" ht="409.6">
       <c r="A96" s="1">
         <v>5217762</v>
       </c>
@@ -6189,7 +6180,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:14" ht="409.6" hidden="1">
+    <row r="97" spans="1:14" ht="409.6">
       <c r="A97" s="1">
         <v>5825536</v>
       </c>
@@ -6218,7 +6209,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:14" ht="409.6" hidden="1">
+    <row r="98" spans="1:14" ht="409.6">
       <c r="A98" s="1">
         <v>6673347</v>
       </c>
@@ -6247,7 +6238,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:14" ht="409.6" hidden="1">
+    <row r="99" spans="1:14" ht="409.6">
       <c r="A99" s="1">
         <v>8014235</v>
       </c>
@@ -6276,7 +6267,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:14" ht="409.6" hidden="1">
+    <row r="100" spans="1:14" ht="409.6">
       <c r="A100" s="1">
         <v>4912097</v>
       </c>
@@ -6305,7 +6296,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="1:14" ht="408" hidden="1" customHeight="1">
+    <row r="101" spans="1:14" ht="408" customHeight="1">
       <c r="A101" s="1">
         <v>6283300</v>
       </c>
@@ -6337,7 +6328,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="1:14" ht="409.6" hidden="1">
+    <row r="102" spans="1:14" ht="409.6">
       <c r="A102" s="1">
         <v>4586812</v>
       </c>
@@ -6366,7 +6357,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:14" ht="409.6" hidden="1">
+    <row r="103" spans="1:14" ht="409.6">
       <c r="A103" s="1">
         <v>4687079</v>
       </c>
@@ -6395,7 +6386,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:14" ht="409.6" hidden="1">
+    <row r="104" spans="1:14" ht="409.6">
       <c r="A104" s="1">
         <v>8281885</v>
       </c>
@@ -6421,7 +6412,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="1:14" ht="409.6" hidden="1">
+    <row r="105" spans="1:14" ht="409.6">
       <c r="A105" s="1">
         <v>6249873</v>
       </c>
@@ -6447,7 +6438,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="1:14" ht="409.6" hidden="1">
+    <row r="106" spans="1:14" ht="409.6">
       <c r="A106" s="1">
         <v>4642579</v>
       </c>
